--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tamucs-my.sharepoint.com/personal/lakshya_v_tamu_edu/Documents/ORSHS/SOD-Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="13_ncr:1_{E531BC78-AA43-4343-A270-5D7D4B3E42B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8CA6983-B835-4FAF-B97A-D2D1BB05F99F}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="13_ncr:1_{E531BC78-AA43-4343-A270-5D7D4B3E42B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{093A2BBA-2D2C-4C37-8D31-CFF95A41C29C}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{E08CE6EE-F99B-440C-927B-8892F2056AFA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E08CE6EE-F99B-440C-927B-8892F2056AFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -342,6 +342,15 @@
   </si>
   <si>
     <t>2025-04-24 thurs</t>
+  </si>
+  <si>
+    <t>Haggerty</t>
+  </si>
+  <si>
+    <t>.,.</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -464,6 +473,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -787,7 +800,8 @@
   <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R88" sqref="R88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,7 +862,9 @@
       <c r="P1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="4"/>
+      <c r="Q1" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -897,7 +913,7 @@
         <v>79</v>
       </c>
       <c r="P2" s="7"/>
-      <c r="Q2" s="4"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -946,7 +962,7 @@
         <v>79</v>
       </c>
       <c r="P3" s="7"/>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -997,7 +1013,9 @@
       <c r="P4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="4"/>
+      <c r="Q4" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1048,7 +1066,9 @@
       <c r="P5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -1099,7 +1119,9 @@
       <c r="P6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -1150,7 +1172,9 @@
       <c r="P7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1201,7 +1225,9 @@
       <c r="P8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1252,7 +1278,9 @@
       <c r="P9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1303,7 +1331,9 @@
       <c r="P10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1354,7 +1384,9 @@
       <c r="P11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -1405,7 +1437,9 @@
       <c r="P12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q12" s="4"/>
+      <c r="Q12" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -1460,7 +1494,9 @@
       <c r="P13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" s="4"/>
+      <c r="Q13" s="7" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1511,7 +1547,9 @@
       <c r="P14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q14" s="4"/>
+      <c r="Q14" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -1562,7 +1600,9 @@
       <c r="P15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" s="4"/>
+      <c r="Q15" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -1613,7 +1653,9 @@
       <c r="P16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" s="4"/>
+      <c r="Q16" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -1664,7 +1706,9 @@
       <c r="P17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
@@ -1715,7 +1759,9 @@
       <c r="P18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q18" s="4"/>
+      <c r="Q18" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -1766,7 +1812,9 @@
       <c r="P19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
@@ -1817,7 +1865,9 @@
       <c r="P20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q20" s="4"/>
+      <c r="Q20" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
@@ -1868,7 +1918,9 @@
       <c r="P21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q21" s="4"/>
+      <c r="Q21" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -1919,7 +1971,9 @@
       <c r="P22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q22" s="4"/>
+      <c r="Q22" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -1970,7 +2024,9 @@
       <c r="P23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q23" s="4"/>
+      <c r="Q23" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -2021,7 +2077,9 @@
       <c r="P24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q24" s="4"/>
+      <c r="Q24" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -2072,7 +2130,9 @@
       <c r="P25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" s="4"/>
+      <c r="Q25" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -2123,7 +2183,9 @@
       <c r="P26" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Q26" s="4"/>
+      <c r="Q26" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
@@ -2174,7 +2236,9 @@
       <c r="P27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q27" s="4"/>
+      <c r="Q27" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
@@ -2225,7 +2289,9 @@
       <c r="P28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q28" s="4"/>
+      <c r="Q28" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -2276,7 +2342,9 @@
       <c r="P29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q29" s="4"/>
+      <c r="Q29" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
@@ -2327,7 +2395,9 @@
       <c r="P30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q30" s="4"/>
+      <c r="Q30" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -2378,7 +2448,9 @@
       <c r="P31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q31" s="4"/>
+      <c r="Q31" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
@@ -2429,7 +2501,9 @@
       <c r="P32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q32" s="4"/>
+      <c r="Q32" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
@@ -2480,7 +2554,9 @@
       <c r="P33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q33" s="4"/>
+      <c r="Q33" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
@@ -2531,7 +2607,9 @@
       <c r="P34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q34" s="4"/>
+      <c r="Q34" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -2582,7 +2660,9 @@
       <c r="P35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q35" s="4"/>
+      <c r="Q35" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
@@ -2633,7 +2713,9 @@
       <c r="P36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q36" s="4"/>
+      <c r="Q36" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -2684,7 +2766,9 @@
       <c r="P37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q37" s="4"/>
+      <c r="Q37" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
@@ -2735,7 +2819,9 @@
       <c r="P38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q38" s="4"/>
+      <c r="Q38" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
@@ -2786,7 +2872,9 @@
       <c r="P39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q39" s="4"/>
+      <c r="Q39" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
@@ -2837,7 +2925,9 @@
       <c r="P40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q40" s="4"/>
+      <c r="Q40" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
@@ -2888,7 +2978,9 @@
       <c r="P41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q41" s="4"/>
+      <c r="Q41" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
@@ -2939,7 +3031,9 @@
       <c r="P42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q42" s="4"/>
+      <c r="Q42" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
@@ -2990,7 +3084,9 @@
       <c r="P43" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q43" s="4"/>
+      <c r="Q43" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
@@ -3041,7 +3137,9 @@
       <c r="P44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q44" s="4"/>
+      <c r="Q44" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
@@ -3092,7 +3190,9 @@
       <c r="P45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q45" s="4"/>
+      <c r="Q45" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
@@ -3116,14 +3216,14 @@
       <c r="G46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>17</v>
+      <c r="H46" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>17</v>
+      <c r="J46" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>1</v>
@@ -3143,7 +3243,9 @@
       <c r="P46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q46" s="4"/>
+      <c r="Q46" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
@@ -3161,11 +3263,11 @@
       <c r="E47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>15</v>
+      <c r="F47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>1</v>
@@ -3194,7 +3296,9 @@
       <c r="P47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q47" s="4"/>
+      <c r="Q47" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
@@ -3203,33 +3307,33 @@
       <c r="B48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="L48" s="2" t="s">
         <v>1</v>
       </c>
@@ -3245,7 +3349,9 @@
       <c r="P48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q48" s="4"/>
+      <c r="Q48" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
@@ -3294,7 +3400,9 @@
         <v>2</v>
       </c>
       <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
+      <c r="Q49" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
@@ -3321,7 +3429,7 @@
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
-      <c r="Q50" s="4"/>
+      <c r="Q50" s="7"/>
     </row>
     <row r="51" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
@@ -3342,7 +3450,7 @@
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
-      <c r="Q51" s="4"/>
+      <c r="Q51" s="7"/>
     </row>
     <row r="52" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
@@ -3363,7 +3471,7 @@
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
-      <c r="Q52" s="4"/>
+      <c r="Q52" s="7"/>
     </row>
     <row r="53" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
@@ -3384,7 +3492,7 @@
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
-      <c r="Q53" s="4"/>
+      <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
@@ -3405,7 +3513,7 @@
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
-      <c r="Q54" s="4"/>
+      <c r="Q54" s="7"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
@@ -3454,7 +3562,9 @@
         <v>2</v>
       </c>
       <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
+      <c r="Q55" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
@@ -3463,8 +3573,8 @@
       <c r="B56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>17</v>
+      <c r="C56" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>1</v>
@@ -3475,11 +3585,11 @@
       <c r="F56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>17</v>
+      <c r="G56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>1</v>
@@ -3493,8 +3603,8 @@
       <c r="L56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M56" s="3" t="s">
-        <v>15</v>
+      <c r="M56" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>1</v>
@@ -3505,7 +3615,9 @@
       <c r="P56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q56" s="4"/>
+      <c r="Q56" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
@@ -3526,8 +3638,8 @@
       <c r="F57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>15</v>
+      <c r="G57" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>17</v>
@@ -3556,7 +3668,9 @@
       <c r="P57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q57" s="4"/>
+      <c r="Q57" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
@@ -3577,17 +3691,17 @@
       <c r="F58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>17</v>
+      <c r="G58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>15</v>
+      <c r="J58" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>1</v>
@@ -3595,8 +3709,8 @@
       <c r="L58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>15</v>
+      <c r="M58" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>1</v>
@@ -3607,7 +3721,9 @@
       <c r="P58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q58" s="4"/>
+      <c r="Q58" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
@@ -3628,8 +3744,8 @@
       <c r="F59" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>15</v>
+      <c r="G59" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>1</v>
@@ -3646,8 +3762,8 @@
       <c r="L59" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>17</v>
+      <c r="M59" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>1</v>
@@ -3655,10 +3771,12 @@
       <c r="O59" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q59" s="4"/>
+      <c r="P59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
@@ -3679,8 +3797,8 @@
       <c r="F60" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>15</v>
+      <c r="G60" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>1</v>
@@ -3688,14 +3806,14 @@
       <c r="I60" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>17</v>
+      <c r="J60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>1</v>
@@ -3709,7 +3827,9 @@
       <c r="P60" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q60" s="4"/>
+      <c r="Q60" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
@@ -3760,7 +3880,9 @@
       <c r="P61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q61" s="4"/>
+      <c r="Q61" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
@@ -3769,8 +3891,8 @@
       <c r="B62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>17</v>
+      <c r="C62" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>1</v>
@@ -3781,11 +3903,11 @@
       <c r="F62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>17</v>
+      <c r="G62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>1</v>
@@ -3799,8 +3921,8 @@
       <c r="L62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>15</v>
+      <c r="M62" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>17</v>
@@ -3811,7 +3933,9 @@
       <c r="P62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q62" s="4"/>
+      <c r="Q62" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
@@ -3832,11 +3956,11 @@
       <c r="F63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>17</v>
+      <c r="G63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>1</v>
@@ -3862,7 +3986,9 @@
       <c r="P63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q63" s="4"/>
+      <c r="Q63" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
@@ -3871,8 +3997,8 @@
       <c r="B64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>17</v>
+      <c r="C64" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>1</v>
@@ -3883,11 +4009,11 @@
       <c r="F64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>17</v>
+      <c r="G64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>1</v>
@@ -3913,7 +4039,9 @@
       <c r="P64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q64" s="4"/>
+      <c r="Q64" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
@@ -3922,8 +4050,8 @@
       <c r="B65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>1</v>
+      <c r="C65" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>1</v>
@@ -3931,11 +4059,11 @@
       <c r="E65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>15</v>
+      <c r="F65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>1</v>
@@ -3952,8 +4080,8 @@
       <c r="L65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M65" s="3" t="s">
-        <v>15</v>
+      <c r="M65" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>1</v>
@@ -3961,10 +4089,12 @@
       <c r="O65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q65" s="4"/>
+      <c r="P65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
@@ -3973,8 +4103,8 @@
       <c r="B66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>17</v>
+      <c r="C66" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>1</v>
@@ -3985,8 +4115,8 @@
       <c r="F66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>15</v>
+      <c r="G66" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>1</v>
@@ -3994,8 +4124,8 @@
       <c r="I66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>17</v>
+      <c r="J66" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>15</v>
@@ -4015,7 +4145,9 @@
       <c r="P66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q66" s="4"/>
+      <c r="Q66" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
@@ -4066,7 +4198,9 @@
       <c r="P67" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q67" s="4"/>
+      <c r="Q67" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="68" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
@@ -4087,11 +4221,11 @@
       <c r="F68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>17</v>
+      <c r="G68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>1</v>
@@ -4108,8 +4242,8 @@
       <c r="M68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N68" s="3" t="s">
-        <v>17</v>
+      <c r="N68" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>1</v>
@@ -4117,7 +4251,9 @@
       <c r="P68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q68" s="4"/>
+      <c r="Q68" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
@@ -4132,14 +4268,14 @@
       <c r="D69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>15</v>
+      <c r="E69" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>15</v>
+      <c r="G69" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>17</v>
@@ -4168,7 +4304,9 @@
       <c r="P69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q69" s="4"/>
+      <c r="Q69" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
@@ -4189,11 +4327,11 @@
       <c r="F70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>17</v>
+      <c r="G70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>1</v>
@@ -4219,7 +4357,9 @@
       <c r="P70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q70" s="4"/>
+      <c r="Q70" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
@@ -4237,11 +4377,11 @@
       <c r="E71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>15</v>
+      <c r="F71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>1</v>
@@ -4258,8 +4398,8 @@
       <c r="L71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M71" s="2" t="s">
-        <v>1</v>
+      <c r="M71" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>1</v>
@@ -4270,7 +4410,9 @@
       <c r="P71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q71" s="4"/>
+      <c r="Q71" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="72" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
@@ -4279,8 +4421,8 @@
       <c r="B72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>17</v>
+      <c r="C72" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>1</v>
@@ -4291,8 +4433,8 @@
       <c r="F72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>15</v>
+      <c r="G72" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>1</v>
@@ -4300,8 +4442,8 @@
       <c r="I72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>17</v>
+      <c r="J72" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>1</v>
@@ -4321,7 +4463,9 @@
       <c r="P72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q72" s="4"/>
+      <c r="Q72" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
@@ -4372,7 +4516,9 @@
       <c r="P73" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q73" s="4"/>
+      <c r="Q73" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="74" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
@@ -4402,8 +4548,8 @@
       <c r="I74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>1</v>
+      <c r="J74" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>1</v>
@@ -4423,7 +4569,9 @@
       <c r="P74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q74" s="4"/>
+      <c r="Q74" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="75" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
@@ -4474,7 +4622,9 @@
       <c r="P75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q75" s="4"/>
+      <c r="Q75" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="76" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
@@ -4513,8 +4663,8 @@
       <c r="L76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M76" s="2" t="s">
-        <v>1</v>
+      <c r="M76" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>1</v>
@@ -4525,7 +4675,9 @@
       <c r="P76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q76" s="4"/>
+      <c r="Q76" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
@@ -4543,8 +4695,8 @@
       <c r="E77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>1</v>
+      <c r="F77" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>15</v>
@@ -4564,8 +4716,8 @@
       <c r="L77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M77" s="2" t="s">
-        <v>1</v>
+      <c r="M77" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>1</v>
@@ -4576,7 +4728,9 @@
       <c r="P77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q77" s="4"/>
+      <c r="Q77" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
@@ -4607,13 +4761,13 @@
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>1</v>
@@ -4627,7 +4781,9 @@
       <c r="P78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q78" s="4"/>
+      <c r="Q78" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
@@ -4678,7 +4834,9 @@
       <c r="P79" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q79" s="4"/>
+      <c r="Q79" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
@@ -4717,8 +4875,8 @@
       <c r="L80" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>1</v>
+      <c r="M80" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>1</v>
@@ -4729,7 +4887,9 @@
       <c r="P80" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q80" s="4"/>
+      <c r="Q80" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="81" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
@@ -4745,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>1</v>
@@ -4759,8 +4919,8 @@
       <c r="I81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>1</v>
+      <c r="J81" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>1</v>
@@ -4780,7 +4940,9 @@
       <c r="P81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q81" s="4"/>
+      <c r="Q81" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="82" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
@@ -4819,8 +4981,8 @@
       <c r="L82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M82" s="2" t="s">
-        <v>1</v>
+      <c r="M82" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>1</v>
@@ -4831,7 +4993,9 @@
       <c r="P82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q82" s="4"/>
+      <c r="Q82" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
@@ -4849,8 +5013,8 @@
       <c r="E83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>1</v>
+      <c r="F83" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>15</v>
@@ -4870,8 +5034,8 @@
       <c r="L83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M83" s="2" t="s">
-        <v>1</v>
+      <c r="M83" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>1</v>
@@ -4882,7 +5046,9 @@
       <c r="P83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q83" s="4"/>
+      <c r="Q83" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
@@ -4913,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>1</v>
@@ -4933,7 +5099,9 @@
       <c r="P84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q84" s="4"/>
+      <c r="Q84" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
@@ -4984,7 +5152,9 @@
       <c r="P85" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q85" s="4"/>
+      <c r="Q85" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="86" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
@@ -5023,8 +5193,8 @@
       <c r="L86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M86" s="2" t="s">
-        <v>1</v>
+      <c r="M86" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>1</v>
@@ -5035,7 +5205,9 @@
       <c r="P86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q86" s="4"/>
+      <c r="Q86" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="87" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
@@ -5051,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>1</v>
@@ -5065,8 +5237,8 @@
       <c r="I87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>1</v>
+      <c r="J87" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>1</v>
@@ -5086,7 +5258,9 @@
       <c r="P87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q87" s="4"/>
+      <c r="Q87" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="88" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
@@ -5125,8 +5299,8 @@
       <c r="L88" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M88" s="2" t="s">
-        <v>1</v>
+      <c r="M88" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>1</v>
@@ -5137,7 +5311,9 @@
       <c r="P88" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q88" s="4"/>
+      <c r="Q88" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
@@ -5155,8 +5331,8 @@
       <c r="E89" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>1</v>
+      <c r="F89" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>15</v>
@@ -5176,8 +5352,8 @@
       <c r="L89" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M89" s="2" t="s">
-        <v>1</v>
+      <c r="M89" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>1</v>
@@ -5188,7 +5364,9 @@
       <c r="P89" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q89" s="4"/>
+      <c r="Q89" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
@@ -5219,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>1</v>
@@ -5239,7 +5417,9 @@
       <c r="P90" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q90" s="4"/>
+      <c r="Q90" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
